--- a/1. CICD/2. LG전자_NERP대응/※ NERP전자유관대응_Jenkins설정.xlsx
+++ b/1. CICD/2. LG전자_NERP대응/※ NERP전자유관대응_Jenkins설정.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="356" yWindow="134" windowWidth="26618" windowHeight="12826"/>
+    <workbookView xWindow="356" yWindow="134" windowWidth="26618" windowHeight="12826" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1. New GDMi" sheetId="1" r:id="rId1"/>
+    <sheet name="2. TAMS" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="213">
   <si>
     <t>고급프로젝트옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,573 @@
   </si>
   <si>
     <t>/sorc001/gdmiadm/ciserv/hudson/jobs/NERP_GDMi_dev_sonar/workspace/sonar-project.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenkins 설정 (1.387.2 --&gt; JDK11로 기동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/hudson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline Speed / Durability Usage Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None : use pipeline default (MAX_SURVIVABLITY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Tool Configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven Global Configration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings file in filesystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Global settings provider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/maven/apache-maven-3.6..3/conf/settings.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/java/openjdk11</t>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/java/openjdk11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/engn001/java/jdk1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGE_JAVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonarQube Scanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONAR_RUNNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/sonar/sonar-scanner-4.7.0.2747-linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGE_ANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGE_MAVEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/ant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/maven/apache-maven-3.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 속성 (일부값 예시….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midadm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appadm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수 (일부값 예시….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JENKINS_HOME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manage Credentials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credentials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scope : Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : Devops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER/PW입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD-TAMS-DEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not allow concurrent builds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not allow the pipeline to resume if the controller restarts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline speed/durability override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preserve stashes from completed builds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throttle builds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 빌드 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 빌드는 매개변수가 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무check없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build Trigger 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Project Options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Groovy Sandbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pipeline {
+    agent any
+    environment {
+        name = 'GAAI.war'
+    }
+    tools {
+        maven 'LGE_MAVEN'
+        jdk 'LGE_JAVA'
+        ant 'LGE_ANT'
+    }
+    stages {
+         stage('Ready') {
+             steps {
+             echo 'kill process!'
+             }
+         }
+        stage ('Checkout') {
+            steps {
+                echo 'Checkout'
+                sh "rm -rf GAAI"
+                sh "yes | /sorc001/appadm/ciserv/svn/bin/svn co --username admin --password admin svn://10.185.246.78/NTAMS/trunk/GAAI"
+            }
+        }
+        stage('Build') {
+            steps {
+                echo 'Now Build'
+               sh "mvn -f GAAI/pom_dev.xml clean package"
+            }
+        }           
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD-TAMS-SA-DEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pipeline {
+    agent any
+    environment {
+        name = 'GAAI-SA.war'
+    }
+    tools {
+        maven 'LGE_MAVEN'
+        jdk 'LGE_JAVA'
+        ant 'LGE_ANT'
+    }
+    stages {
+         stage('Ready') {
+             steps {
+             echo 'kill process!'
+             }
+         }
+        stage ('Checkout') {
+            steps {
+                echo 'Checkout'
+                sh "rm -rf GAAI_ServiceAccess"
+                sh "yes | /sorc001/appadm/ciserv/svn/bin/svn co --username admin --password admin svn://10.185.246.78/NTAMS/trunk/GAAI_ServiceAccess"
+            }
+        }
+        stage('Deploy') {
+            steps {
+                echo 'Deploy'
+                sh "ant -buildfile GAAI_ServiceAccess/build_prod.xml all"
+            }
+        }
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPELINE (운영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline {
+    agent any
+    environment {
+        name = 'GAAI.war'
+    }
+    tools {
+        maven 'LGE_MAVEN'
+        jdk 'LGE_JAVA'
+        ant 'LGE_ANT'
+    }
+    stages {
+         stage('Ready') {
+             steps {
+             echo 'kill process!'
+             }
+         }
+        stage ('Checkout') {
+            steps {
+                echo 'Checkout'
+                sh "rm -rf GAAI"
+                sh "yes | /sorc001/appadm/ciserv/svn/bin/svn co --username admin --password admin svn://10.185.246.78/NTAMS/branches/GAAI"
+            }
+        }
+        stage('Build') {
+            steps {
+                echo 'Now Build'
+               sh "mvn -f GAAI/pom_prod.xml clean package"
+            }
+        }
+        stage('Deploy') {
+            steps {
+                echo 'Deploy'
+                sh "ant -buildfile GAAI/build_prod.xml deploy"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline {
+    agent any
+    environment {
+        name = 'GAAI-SA.war'
+    }
+    tools {
+        maven 'LGE_MAVEN'
+        jdk 'LGE_JAVA'
+        ant 'LGE_ANT'
+    }
+    stages {
+         stage('Ready') {
+             steps {
+             echo 'kill process!'
+             }
+         }
+        stage ('Checkout') {
+            steps {
+                echo 'Checkout'
+                sh "rm -rf GAAI_ServiceAccess"
+                sh "yes | /sorc001/appadm/ciserv/svn/bin/svn co --username admin --password admin svn://10.185.246.78/NTAMS/trunk/GAAI_ServiceAccess"
+            }
+        }
+        stage('Deploy') {
+            steps {
+                echo 'Deploy'
+                sh "ant -buildfile GAAI_ServiceAccess/build_prod.xml all"
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD-TAMS-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD-TAMS-SA-PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPELINE (개발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 경우 concurrent 빌드실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD-TEST-JOB-SONNAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB (Sonar : 정적분석) --&gt; 설정되어 있지 않음 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credentials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check-out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">svn://10.185.246.189/test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LG Smart UI Regular"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(해당 svn 아님X)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allways check out a fresh copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build Steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드 후 조치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projects to watch : BD-TAMS-DEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build after other projects are built</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always trigger, even if the build is aborted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excute shells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sorc001/appadm/ciserv/maven/apace-maven-3.6.3/bin/mvn -f test/pom.xml clean package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excute sonarqube scanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task to run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path to Project properteis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis Properteis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonar.projectKey=BD-TEST-JOB
+sonar.sources=/sorc001/appadm/ciserv/jenkins/workspace/BD-TEST-JOB/test/src
+sonar.java.binaries=/sorc001/appadm/ciserv/jenkins/workspace/BD-TEST-JOB/test/target
+sonar.host.url=http://localhost:9000
+sonar.login=sqp_a5ee1eb8a413cb2c87164c528d92cd23c8a6ebab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +1017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +1064,38 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LG Smart UI Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="LG Smart UI SemiBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="LG Smart UI Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="LG Smart UI Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,8 +1120,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -648,64 +1257,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -715,64 +1392,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T32" sqref="A27:T32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -1097,1253 +1831,1206 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="3" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="3" t="s">
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="3" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="3" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="4" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="4" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="11"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="33">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="4" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="4" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="33">
         <v>0</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="4" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="4" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="4" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="4" t="s">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="21" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="4" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="4" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="22" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="5" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="5" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="30"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="23" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="6" t="s">
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="9" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="9" t="s">
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="25"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="9" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="9" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="9" t="s">
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="9" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="9" t="s">
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="21" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="33" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="21" t="s">
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="21" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="4" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="4" t="s">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="31"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="23" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="6" t="s">
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="6" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="37" t="s">
+      <c r="X17" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="9" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="9" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="36" t="s">
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y18" s="35" t="s">
+      <c r="Y18" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="21" t="s">
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Y19" s="7" t="s">
+      <c r="Y19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="30"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="4" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="21" t="s">
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Y20" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>1.4</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="4" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="8"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="24" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="34" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="34" t="s">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="11"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="8"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="32"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="4" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="32"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="4" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="11"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="8"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="32"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="21" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="4" t="s">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="4" t="s">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="11"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="8"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="32"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="21" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="12" t="s">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="11"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="8"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="23" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="39" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="39" t="s">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="11"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="8"/>
     </row>
     <row r="28" spans="1:30" ht="28.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="15" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="27"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="W22:W24"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="W17:W21"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P15:V15"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="O17:O21"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="H3:N3"/>
@@ -2360,10 +3047,57 @@
     <mergeCell ref="I23:N23"/>
     <mergeCell ref="I24:N24"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="O17:O21"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="W22:W24"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="W17:W21"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="Y20:AD20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,14 +3107,2526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:V2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.350000000000001"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12.125" customWidth="1"/>
+    <col min="29" max="30" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+    </row>
+    <row r="3" spans="1:30" ht="16.350000000000001" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="X4" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="X9" s="62"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y10" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="38"/>
+      <c r="B11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y11" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="W12" s="67"/>
+      <c r="X12" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y12" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="G13" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="W13" s="67"/>
+      <c r="X13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y13" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y14" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+    </row>
+    <row r="16" spans="1:30" ht="16.350000000000001" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="39"/>
+      <c r="B19" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="39"/>
+      <c r="B21" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="G24" s="57"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="16.350000000000001" customHeight="1">
+      <c r="A25" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y25" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="69"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="G31" s="57"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="71"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="G37" s="57"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="48"/>
+      <c r="B40" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="G41" s="57"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="G42" s="57"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="G43" s="57"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="G44" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="G45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="G46" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P46" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q46" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+    </row>
+    <row r="47" spans="1:22" ht="16.350000000000001" customHeight="1">
+      <c r="G47" s="31"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="G48" s="31"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+    </row>
+    <row r="49" spans="7:22">
+      <c r="G49" s="31"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+    </row>
+    <row r="50" spans="7:22">
+      <c r="G50" s="31"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+    </row>
+    <row r="51" spans="7:22">
+      <c r="G51" s="31"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+    </row>
+    <row r="52" spans="7:22">
+      <c r="G52" s="31"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+    </row>
+    <row r="53" spans="7:22">
+      <c r="G53" s="31"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+    </row>
+    <row r="54" spans="7:22">
+      <c r="G54" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O54" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="7:22">
+      <c r="G55" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="O55" s="53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="7:22">
+      <c r="G56" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="P56" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q56" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+    </row>
+    <row r="57" spans="7:22">
+      <c r="G57" s="57"/>
+      <c r="H57" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q57" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+    </row>
+    <row r="58" spans="7:22">
+      <c r="G58" s="57"/>
+      <c r="H58" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q58" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+    </row>
+    <row r="59" spans="7:22">
+      <c r="G59" s="57"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
+    </row>
+    <row r="60" spans="7:22">
+      <c r="G60" s="57"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
+    </row>
+    <row r="61" spans="7:22">
+      <c r="G61" s="57"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+    </row>
+    <row r="62" spans="7:22">
+      <c r="G62" s="57"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
+    </row>
+    <row r="63" spans="7:22">
+      <c r="G63" s="57"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="56"/>
+    </row>
+    <row r="64" spans="7:22">
+      <c r="G64" s="57"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+    </row>
+    <row r="65" spans="7:22">
+      <c r="G65" s="57"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+    </row>
+    <row r="66" spans="7:22">
+      <c r="G66" s="57"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+    </row>
+    <row r="67" spans="7:22">
+      <c r="G67" s="57"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="56"/>
+    </row>
+    <row r="68" spans="7:22">
+      <c r="G68" s="57"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+    </row>
+    <row r="69" spans="7:22">
+      <c r="G69" s="57"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+    </row>
+    <row r="70" spans="7:22">
+      <c r="G70" s="57"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+    </row>
+    <row r="71" spans="7:22">
+      <c r="G71" s="57"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+    </row>
+    <row r="72" spans="7:22">
+      <c r="G72" s="57"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+    </row>
+    <row r="73" spans="7:22">
+      <c r="G73" s="57"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
+    </row>
+    <row r="74" spans="7:22">
+      <c r="G74" s="57"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+    </row>
+    <row r="75" spans="7:22">
+      <c r="G75" s="57"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
+    </row>
+    <row r="76" spans="7:22">
+      <c r="G76" s="57"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+    </row>
+    <row r="77" spans="7:22">
+      <c r="G77" s="57"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
+    </row>
+    <row r="78" spans="7:22">
+      <c r="G78" s="57"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
+      <c r="V78" s="56"/>
+    </row>
+    <row r="79" spans="7:22">
+      <c r="G79" s="57"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="56"/>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
+    </row>
+    <row r="80" spans="7:22">
+      <c r="G80" s="57"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+    </row>
+    <row r="81" spans="7:22">
+      <c r="G81" s="57"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+    </row>
+    <row r="82" spans="7:22">
+      <c r="G82" s="57"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+    </row>
+    <row r="83" spans="7:22">
+      <c r="G83" s="57"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
+    </row>
+    <row r="84" spans="7:22">
+      <c r="G84" s="57"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+    </row>
+    <row r="85" spans="7:22">
+      <c r="G85" s="57"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
+    </row>
+    <row r="86" spans="7:22">
+      <c r="G86" s="57"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+    </row>
+    <row r="87" spans="7:22">
+      <c r="G87" s="57"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+    </row>
+    <row r="88" spans="7:22">
+      <c r="G88" s="57"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="56"/>
+      <c r="T88" s="56"/>
+      <c r="U88" s="56"/>
+      <c r="V88" s="56"/>
+    </row>
+    <row r="89" spans="7:22">
+      <c r="G89" s="57"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="57"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="56"/>
+    </row>
+    <row r="90" spans="7:22">
+      <c r="G90" s="57"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="132">
+    <mergeCell ref="W19:W30"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="Y25:AD30"/>
+    <mergeCell ref="X25:X30"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="X4:X8"/>
+    <mergeCell ref="W4:W8"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="W10:W14"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="Q53:V53"/>
+    <mergeCell ref="G2:V2"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Q49:V49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="Q50:V50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="Q51:V51"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="Q52:V52"/>
+    <mergeCell ref="H46:H53"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O53"/>
+    <mergeCell ref="P46:P53"/>
+    <mergeCell ref="Q46:V46"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="Q47:V47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="Q48:V48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="G44:V44"/>
+    <mergeCell ref="I58:N90"/>
+    <mergeCell ref="Q58:V90"/>
+    <mergeCell ref="G56:G90"/>
+    <mergeCell ref="H58:H90"/>
+    <mergeCell ref="P58:P90"/>
+    <mergeCell ref="O56:O90"/>
+    <mergeCell ref="H45:N45"/>
+    <mergeCell ref="P45:V45"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="Q56:V56"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="Q57:V57"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="O14:O43"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="P16:P43"/>
+    <mergeCell ref="Q16:V43"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="O4:O11"/>
+    <mergeCell ref="P4:P11"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="H16:H43"/>
+    <mergeCell ref="G14:G43"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N43"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
